--- a/data/trans_orig/P1417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7329F78A-8162-4E2B-ACAF-B636B6FD4382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1FA60C-7E0B-4B65-A87D-0F9507469BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB12D8F8-CE99-4C03-954D-D6252920155E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D878BF-1323-497E-93B2-1DFCA7525BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="481">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1432 +95,1393 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,27%</t>
+    <t>95,37%</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA33BA5-D9E5-4696-BAB2-26F6A3640E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B05384D-1291-48FB-9E17-53163EE2D88C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2328,13 +2289,13 @@
         <v>10911</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2343,13 +2304,13 @@
         <v>12662</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,10 +2325,10 @@
         <v>491324</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2379,13 +2340,13 @@
         <v>493038</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>952</v>
@@ -2394,13 +2355,13 @@
         <v>984362</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2417,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2474,37 +2435,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2534,13 +2495,13 @@
         <v>2911</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2549,13 +2510,13 @@
         <v>2911</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,7 +2534,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -2585,13 +2546,13 @@
         <v>332501</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
@@ -2600,13 +2561,13 @@
         <v>651347</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2623,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2680,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2710,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2686,13 @@
         <v>944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2740,13 +2701,13 @@
         <v>4565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2755,13 +2716,13 @@
         <v>5509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,10 +2737,10 @@
         <v>357727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -2791,13 +2752,13 @@
         <v>366891</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>740</v>
@@ -2806,13 +2767,13 @@
         <v>724618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,7 +2829,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2886,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2901,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2916,7 +2877,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2892,13 @@
         <v>810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2946,13 +2907,13 @@
         <v>6369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2961,13 +2922,13 @@
         <v>7178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,10 +2943,10 @@
         <v>202498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -2997,13 +2958,13 @@
         <v>201299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>397</v>
@@ -3012,13 +2973,13 @@
         <v>403798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3035,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3092,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3143,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3152,13 +3113,13 @@
         <v>3070</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3167,13 +3128,13 @@
         <v>3070</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
@@ -3203,13 +3164,13 @@
         <v>275074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>533</v>
@@ -3218,13 +3179,13 @@
         <v>545885</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,7 +3241,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3298,37 +3259,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3304,13 @@
         <v>3596</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3358,13 +3319,13 @@
         <v>15887</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -3373,13 +3334,13 @@
         <v>19483</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3355,13 @@
         <v>611431</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>607</v>
@@ -3409,13 +3370,13 @@
         <v>622332</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>1201</v>
@@ -3424,13 +3385,13 @@
         <v>1233763</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +3447,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3504,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3519,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3534,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3510,13 @@
         <v>4769</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3564,13 +3525,13 @@
         <v>12888</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -3579,13 +3540,13 @@
         <v>17657</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3561,13 @@
         <v>739026</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H34" s="7">
         <v>733</v>
@@ -3615,13 +3576,13 @@
         <v>770623</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M34" s="7">
         <v>1464</v>
@@ -3630,13 +3591,13 @@
         <v>1509649</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,37 +3671,37 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,10 +3719,10 @@
         <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H37" s="7">
         <v>55</v>
@@ -3770,13 +3731,13 @@
         <v>57673</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -3785,13 +3746,13 @@
         <v>71154</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,10 +3770,10 @@
         <v>27</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7">
         <v>3242</v>
@@ -3821,28 +3782,28 @@
         <v>3321525</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M38" s="7">
         <v>6443</v>
       </c>
       <c r="N38" s="7">
-        <v>6584586</v>
+        <v>6584587</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3845,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -3898,7 +3859,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5E37E4-CF8B-4F0A-B047-CEC81B24F126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDCCF91-5DE6-4753-BC74-410188E74BE4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3900,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4044,39 +4005,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,39 +4050,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,39 +4095,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,39 +4140,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4294,13 +4255,13 @@
         <v>10342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -4309,13 +4270,13 @@
         <v>10342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4306,13 @@
         <v>513423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>942</v>
@@ -4360,13 +4321,13 @@
         <v>1018950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4383,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4440,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4455,7 +4416,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4470,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4446,13 @@
         <v>2000</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4500,13 +4461,13 @@
         <v>6280</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4515,13 +4476,13 @@
         <v>8280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,10 +4497,10 @@
         <v>322046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -4551,13 +4512,13 @@
         <v>334740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -4566,13 +4527,13 @@
         <v>656786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4646,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4661,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4676,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4652,13 @@
         <v>1960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4706,13 +4667,13 @@
         <v>25429</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4721,13 +4682,13 @@
         <v>27389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,10 +4703,10 @@
         <v>666760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -4757,13 +4718,13 @@
         <v>650767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>1227</v>
@@ -4772,13 +4733,13 @@
         <v>1317527</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4795,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4852,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4867,7 +4828,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4882,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4858,13 @@
         <v>3120</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4912,13 +4873,13 @@
         <v>11963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -4927,13 +4888,13 @@
         <v>15083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4909,13 @@
         <v>209498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H22" s="7">
         <v>201</v>
@@ -4963,13 +4924,13 @@
         <v>207628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -4978,13 +4939,13 @@
         <v>417126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,7 +5001,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5058,7 +5019,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5103,13 +5064,13 @@
         <v>1982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5118,13 +5079,13 @@
         <v>4898</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5133,13 +5094,13 @@
         <v>6880</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,10 +5115,10 @@
         <v>271999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5169,13 +5130,13 @@
         <v>273198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -5184,13 +5145,13 @@
         <v>545197</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,7 +5207,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5264,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5279,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5294,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5270,13 @@
         <v>1998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -5324,13 +5285,13 @@
         <v>20519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -5339,13 +5300,13 @@
         <v>22518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +5321,10 @@
         <v>660790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -5375,13 +5336,13 @@
         <v>673334</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M30" s="7">
         <v>1234</v>
@@ -5390,13 +5351,13 @@
         <v>1334123</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,7 +5413,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5470,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5485,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5500,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5476,13 @@
         <v>4265</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
@@ -5530,13 +5491,13 @@
         <v>17128</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -5545,13 +5506,13 @@
         <v>21393</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5527,13 @@
         <v>774833</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H34" s="7">
         <v>739</v>
@@ -5581,13 +5542,13 @@
         <v>804403</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M34" s="7">
         <v>1452</v>
@@ -5596,13 +5557,13 @@
         <v>1579236</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,37 +5637,37 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5682,13 @@
         <v>15324</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -5736,13 +5697,13 @@
         <v>96559</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>105</v>
@@ -5751,13 +5712,13 @@
         <v>111884</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5733,13 @@
         <v>3411455</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="H38" s="7">
         <v>3205</v>
@@ -5787,28 +5748,28 @@
         <v>3457493</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>6399</v>
       </c>
       <c r="N38" s="7">
-        <v>6868946</v>
+        <v>6868947</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5811,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -5864,7 +5825,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5888,7 +5849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91ABC179-47B3-4005-B874-82D71A55D548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE4ADC-7C2A-48F0-82B7-30ADA9267A58}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5905,7 +5866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6018,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6033,22 +5994,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,7 +6024,7 @@
         <v>2682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -6096,10 +6057,10 @@
         <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,7 +6075,7 @@
         <v>291079</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>286</v>
@@ -6150,7 +6111,7 @@
         <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,7 +6185,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6239,7 +6200,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6269,13 +6230,13 @@
         <v>4147</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6284,13 +6245,13 @@
         <v>4306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>293</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6299,10 +6260,10 @@
         <v>8454</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>295</v>
@@ -6320,10 +6281,10 @@
         <v>498428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>296</v>
@@ -6335,13 +6296,13 @@
         <v>518778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>951</v>
@@ -6350,13 +6311,13 @@
         <v>1017205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,7 +6373,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6430,7 +6391,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6445,7 +6406,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6460,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6436,13 @@
         <v>783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6490,13 +6451,13 @@
         <v>6676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6505,13 +6466,13 @@
         <v>7458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,10 +6487,10 @@
         <v>317782</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6541,13 +6502,13 @@
         <v>329633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>659</v>
@@ -6556,13 +6517,13 @@
         <v>647416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6579,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6636,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6651,7 +6612,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6666,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6642,13 @@
         <v>3952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -6696,13 +6657,13 @@
         <v>14772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -6711,13 +6672,13 @@
         <v>18724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6693,13 @@
         <v>366012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>344</v>
@@ -6747,13 +6708,13 @@
         <v>372511</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>694</v>
@@ -6762,13 +6723,13 @@
         <v>738523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6785,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6842,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6872,7 +6833,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +6848,7 @@
         <v>974</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -6905,10 +6866,10 @@
         <v>322</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6917,13 +6878,13 @@
         <v>7116</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,10 +6899,10 @@
         <v>210247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -6953,13 +6914,13 @@
         <v>212446</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -6968,13 +6929,13 @@
         <v>422692</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,7 +6991,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7048,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7063,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7093,13 +7054,13 @@
         <v>2841</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7108,13 +7069,13 @@
         <v>4468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7123,13 +7084,13 @@
         <v>7309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7105,13 @@
         <v>260282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7159,13 +7120,13 @@
         <v>268647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -7174,13 +7135,13 @@
         <v>528929</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,7 +7197,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7254,7 +7215,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7269,7 +7230,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7284,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,10 +7263,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -7314,13 +7275,13 @@
         <v>21172</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -7329,13 +7290,13 @@
         <v>23866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,10 +7314,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
         <v>626</v>
@@ -7365,13 +7326,13 @@
         <v>670122</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="M30" s="7">
         <v>1203</v>
@@ -7380,13 +7341,13 @@
         <v>1323986</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7403,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7460,7 +7421,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7475,7 +7436,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7490,7 +7451,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,13 +7466,13 @@
         <v>1023</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -7520,13 +7481,13 @@
         <v>21248</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -7535,13 +7496,13 @@
         <v>22270</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>353</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,10 +7517,10 @@
         <v>777560</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -7571,13 +7532,13 @@
         <v>804919</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="M34" s="7">
         <v>1485</v>
@@ -7586,13 +7547,13 @@
         <v>1582480</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,37 +7627,37 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7672,13 @@
         <v>19096</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="H37" s="7">
         <v>81</v>
@@ -7726,13 +7687,13 @@
         <v>86874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M37" s="7">
         <v>100</v>
@@ -7741,13 +7702,13 @@
         <v>105970</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7723,13 @@
         <v>3375254</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="7">
         <v>3257</v>
@@ -7777,13 +7738,13 @@
         <v>3457668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="M38" s="7">
         <v>6469</v>
@@ -7792,13 +7753,13 @@
         <v>6832922</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,7 +7815,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7878,7 +7839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B3E4C7-852B-4C1A-98C3-5E1B9CF3433A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1D868-94D5-4EAA-8744-CEE6BF4F3637}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7895,7 +7856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8008,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8038,7 +7999,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8014,13 @@
         <v>2927</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -8068,13 +8029,13 @@
         <v>13417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -8083,13 +8044,13 @@
         <v>16344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8065,13 @@
         <v>257371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>518</v>
@@ -8119,13 +8080,13 @@
         <v>257986</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="M6" s="7">
         <v>845</v>
@@ -8134,13 +8095,13 @@
         <v>515356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,7 +8190,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8244,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8220,13 @@
         <v>4123</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -8274,13 +8235,13 @@
         <v>22077</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -8289,13 +8250,13 @@
         <v>26200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8271,13 @@
         <v>512726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>685</v>
@@ -8325,13 +8286,13 @@
         <v>530428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -8340,13 +8301,13 @@
         <v>1043154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,7 +8363,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8420,7 +8381,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8465,13 +8426,13 @@
         <v>3859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -8480,13 +8441,13 @@
         <v>12661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -8495,13 +8456,13 @@
         <v>16520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8477,13 @@
         <v>318381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -8531,13 +8492,13 @@
         <v>360623</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
@@ -8546,13 +8507,13 @@
         <v>679004</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,7 +8569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8626,7 +8587,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8641,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8656,7 +8617,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8632,13 @@
         <v>4098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -8686,13 +8647,13 @@
         <v>18530</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -8701,13 +8662,13 @@
         <v>22628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8683,13 @@
         <v>318142</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H18" s="7">
         <v>572</v>
@@ -8737,13 +8698,13 @@
         <v>410026</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -8752,13 +8713,13 @@
         <v>728168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8814,7 +8775,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8832,7 +8793,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -8841,13 +8802,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8856,13 +8817,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8877,13 +8838,13 @@
         <v>1119</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>418</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -8892,13 +8853,13 @@
         <v>7674</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -8907,13 +8868,13 @@
         <v>8793</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,10 +8889,10 @@
         <v>195629</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -8949,7 +8910,7 @@
         <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>750</v>
@@ -8958,13 +8919,13 @@
         <v>419123</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,7 +8981,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9038,7 +8999,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9047,7 +9008,7 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -9062,13 +9023,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9083,13 +9044,13 @@
         <v>10272</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -9098,13 +9059,13 @@
         <v>15480</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -9113,13 +9074,13 @@
         <v>25752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9134,13 +9095,13 @@
         <v>266951</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>28</v>
       </c>
       <c r="H26" s="7">
         <v>425</v>
@@ -9149,13 +9110,13 @@
         <v>259424</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>778</v>
@@ -9164,13 +9125,13 @@
         <v>526375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,7 +9187,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9244,7 +9205,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9274,7 +9235,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9289,13 +9250,13 @@
         <v>11268</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -9304,13 +9265,13 @@
         <v>60878</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -9319,13 +9280,13 @@
         <v>72146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9340,13 +9301,13 @@
         <v>613549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>867</v>
@@ -9355,13 +9316,13 @@
         <v>741335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M30" s="7">
         <v>1448</v>
@@ -9370,13 +9331,13 @@
         <v>1354884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,7 +9393,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9450,7 +9411,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9459,13 +9420,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>267</v>
+        <v>460</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9474,13 +9435,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9495,13 +9456,13 @@
         <v>2920</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>466</v>
+        <v>294</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H33" s="7">
         <v>15</v>
@@ -9510,13 +9471,13 @@
         <v>13534</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -9525,13 +9486,13 @@
         <v>16454</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>267</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,13 +9507,13 @@
         <v>856508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>300</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H34" s="7">
         <v>1045</v>
@@ -9561,13 +9522,13 @@
         <v>851492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>424</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="M34" s="7">
         <v>1804</v>
@@ -9576,13 +9537,13 @@
         <v>1708000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,7 +9617,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9665,13 +9626,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9680,13 +9641,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9701,13 +9662,13 @@
         <v>40585</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -9716,13 +9677,13 @@
         <v>164251</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>485</v>
+        <v>367</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -9731,13 +9692,13 @@
         <v>204836</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>486</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>487</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,13 +9713,13 @@
         <v>3339257</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H38" s="7">
         <v>5099</v>
@@ -9767,13 +9728,13 @@
         <v>3634809</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M38" s="7">
         <v>8411</v>
@@ -9782,13 +9743,13 @@
         <v>6974065</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,7 +9805,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1FA60C-7E0B-4B65-A87D-0F9507469BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A77A4F-DD6C-4B21-9052-11C7EAA0292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6D878BF-1323-497E-93B2-1DFCA7525BF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95F3568C-6081-46A7-950A-149A6F142241}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="489">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1377 +95,1404 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>3,35%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
     <t>99,1%</t>
   </si>
   <si>
@@ -1476,9 +1503,6 @@
   </si>
   <si>
     <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
   </si>
   <si>
     <t>95,37%</t>
@@ -1893,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B05384D-1291-48FB-9E17-53163EE2D88C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E44D03-FE5F-4608-BB65-47C7AB1BC995}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2289,13 +2313,13 @@
         <v>10911</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2304,13 +2328,13 @@
         <v>12662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2364,13 @@
         <v>493038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>952</v>
@@ -2355,10 +2379,10 @@
         <v>984362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>48</v>
@@ -2498,10 +2522,10 @@
         <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2510,13 +2534,13 @@
         <v>2911</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2558,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -2546,13 +2570,13 @@
         <v>332501</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
@@ -2561,13 +2585,13 @@
         <v>651347</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2647,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2641,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2671,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2710,13 @@
         <v>944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2701,13 +2725,13 @@
         <v>4565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2716,13 +2740,13 @@
         <v>5509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,10 +2761,10 @@
         <v>357727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -2752,13 +2776,13 @@
         <v>366891</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>740</v>
@@ -2767,13 +2791,13 @@
         <v>724618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2853,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2847,37 +2871,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2916,13 @@
         <v>810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2907,13 +2931,13 @@
         <v>6369</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2922,13 +2946,13 @@
         <v>7178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,10 +2967,10 @@
         <v>202498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -2958,13 +2982,13 @@
         <v>201299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>397</v>
@@ -2973,13 +2997,13 @@
         <v>403798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3059,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3053,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3104,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3113,13 +3137,13 @@
         <v>3070</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3128,13 +3152,13 @@
         <v>3070</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3176,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
@@ -3164,10 +3188,10 @@
         <v>275074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>42</v>
@@ -3179,13 +3203,13 @@
         <v>545885</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3265,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3259,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3274,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3289,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3328,13 @@
         <v>3596</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3319,13 +3343,13 @@
         <v>15887</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -3334,13 +3358,13 @@
         <v>19483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3379,13 @@
         <v>611431</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="H30" s="7">
         <v>607</v>
@@ -3370,13 +3394,13 @@
         <v>622332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>1201</v>
@@ -3385,13 +3409,13 @@
         <v>1233763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,7 +3471,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3465,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3480,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3495,7 +3519,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3534,13 @@
         <v>4769</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3525,13 +3549,13 @@
         <v>12888</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -3540,13 +3564,13 @@
         <v>17657</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3585,13 @@
         <v>739026</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7">
         <v>733</v>
@@ -3576,13 +3600,13 @@
         <v>770623</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M34" s="7">
         <v>1464</v>
@@ -3591,13 +3615,13 @@
         <v>1509649</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3686,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3701,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,10 +3743,10 @@
         <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H37" s="7">
         <v>55</v>
@@ -3731,13 +3755,13 @@
         <v>57673</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -3746,13 +3770,13 @@
         <v>71154</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,16 +3788,16 @@
         <v>3201</v>
       </c>
       <c r="D38" s="7">
-        <v>3263063</v>
+        <v>3263062</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H38" s="7">
         <v>3242</v>
@@ -3782,13 +3806,13 @@
         <v>3321525</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M38" s="7">
         <v>6443</v>
@@ -3797,13 +3821,13 @@
         <v>6584587</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +3839,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>31</v>
@@ -3859,7 +3883,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDCCF91-5DE6-4753-BC74-410188E74BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2995F8-1913-4E2E-B703-0703BFBC7206}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3900,7 +3924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,39 +4029,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,39 +4074,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,39 +4119,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,39 +4164,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4255,13 +4279,13 @@
         <v>10342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -4270,13 +4294,13 @@
         <v>10342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4330,13 @@
         <v>513423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>942</v>
@@ -4321,13 +4345,13 @@
         <v>1018950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4416,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4452,7 +4476,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4461,13 +4485,13 @@
         <v>6280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4476,13 +4500,13 @@
         <v>8280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,10 +4521,10 @@
         <v>322046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -4512,13 +4536,13 @@
         <v>334740</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -4527,13 +4551,13 @@
         <v>656786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4607,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4622,7 +4646,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4637,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4676,13 @@
         <v>1960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4667,13 +4691,13 @@
         <v>25429</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4682,13 +4706,13 @@
         <v>27389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,10 +4727,10 @@
         <v>666760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -4718,13 +4742,13 @@
         <v>650767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
         <v>1227</v>
@@ -4733,13 +4757,13 @@
         <v>1317527</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,7 +4819,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4813,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4828,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4843,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4882,13 @@
         <v>3120</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4873,13 +4897,13 @@
         <v>11963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -4888,13 +4912,13 @@
         <v>15083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4933,13 @@
         <v>209498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>201</v>
@@ -4924,13 +4948,13 @@
         <v>207628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -4939,13 +4963,13 @@
         <v>417126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5025,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5019,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5064,13 +5088,13 @@
         <v>1982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5079,13 +5103,13 @@
         <v>4898</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5094,13 +5118,13 @@
         <v>6880</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,10 +5139,10 @@
         <v>271999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5130,13 +5154,13 @@
         <v>273198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -5145,13 +5169,13 @@
         <v>545197</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5231,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5225,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5255,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,7 +5300,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -5285,13 +5309,13 @@
         <v>20519</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -5300,13 +5324,13 @@
         <v>22518</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,10 +5345,10 @@
         <v>660790</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -5336,13 +5360,13 @@
         <v>673334</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M30" s="7">
         <v>1234</v>
@@ -5351,10 +5375,10 @@
         <v>1334123</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>247</v>
@@ -5413,7 +5437,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5431,7 +5455,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5446,7 +5470,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5461,7 +5485,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5503,7 @@
         <v>249</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>250</v>
@@ -5491,13 +5515,13 @@
         <v>17128</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -5506,10 +5530,10 @@
         <v>21393</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>254</v>
@@ -5533,7 +5557,7 @@
         <v>256</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H34" s="7">
         <v>739</v>
@@ -5542,13 +5566,13 @@
         <v>804403</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M34" s="7">
         <v>1452</v>
@@ -5557,13 +5581,13 @@
         <v>1579236</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +5661,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5652,7 +5676,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5667,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,10 +5709,10 @@
         <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -5715,10 +5739,10 @@
         <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5757,13 @@
         <v>3411455</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7">
         <v>3205</v>
@@ -5748,28 +5772,28 @@
         <v>3457493</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>6399</v>
       </c>
       <c r="N38" s="7">
-        <v>6868947</v>
+        <v>6868946</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,7 +5835,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980831</v>
+        <v>6980830</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -5825,7 +5849,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5849,7 +5873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE4ADC-7C2A-48F0-82B7-30ADA9267A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2C9549-6A37-4621-81DA-213802DEBE70}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5866,7 +5890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5979,7 +6003,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5994,7 +6018,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6009,7 +6033,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6048,13 @@
         <v>2682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6039,13 +6063,13 @@
         <v>8091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6054,13 +6078,13 @@
         <v>10773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>53</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,10 +6099,10 @@
         <v>291079</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6090,13 +6114,13 @@
         <v>280612</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>534</v>
@@ -6105,13 +6129,13 @@
         <v>571691</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6200,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6230,13 +6254,13 @@
         <v>4147</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6245,13 +6269,13 @@
         <v>4306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6260,13 +6284,13 @@
         <v>8454</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6305,13 @@
         <v>498428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>480</v>
@@ -6296,13 +6320,13 @@
         <v>518778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>951</v>
@@ -6311,13 +6335,13 @@
         <v>1017205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,7 +6430,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6421,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6460,13 @@
         <v>783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6451,13 +6475,13 @@
         <v>6676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6466,13 +6490,13 @@
         <v>7458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,10 +6511,10 @@
         <v>317782</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6502,13 +6526,13 @@
         <v>329633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>659</v>
@@ -6517,13 +6541,13 @@
         <v>647416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,7 +6603,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6597,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6612,7 +6636,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6627,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6666,13 @@
         <v>3952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -6657,13 +6681,13 @@
         <v>14772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -6672,13 +6696,13 @@
         <v>18724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6717,13 @@
         <v>366012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7">
         <v>344</v>
@@ -6708,13 +6732,13 @@
         <v>372511</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>694</v>
@@ -6723,13 +6747,13 @@
         <v>738523</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,7 +6809,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6803,7 +6827,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6818,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6833,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6872,13 @@
         <v>974</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6863,13 +6887,13 @@
         <v>6141</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6878,13 +6902,13 @@
         <v>7116</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,10 +6923,10 @@
         <v>210247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -6914,13 +6938,13 @@
         <v>212446</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -6929,13 +6953,13 @@
         <v>422692</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,7 +7015,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7009,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7024,7 +7048,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7054,13 +7078,13 @@
         <v>2841</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7069,13 +7093,13 @@
         <v>4468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7084,13 +7108,13 @@
         <v>7309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7129,13 @@
         <v>260282</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7120,13 +7144,13 @@
         <v>268647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -7135,13 +7159,13 @@
         <v>528929</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,7 +7221,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7215,7 +7239,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7245,7 +7269,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,10 +7287,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -7275,10 +7299,10 @@
         <v>21172</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>341</v>
@@ -7293,10 +7317,10 @@
         <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,10 +7338,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H30" s="7">
         <v>626</v>
@@ -7326,13 +7350,13 @@
         <v>670122</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="M30" s="7">
         <v>1203</v>
@@ -7341,13 +7365,13 @@
         <v>1323986</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,7 +7427,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7421,7 +7445,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7436,7 +7460,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7451,7 +7475,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7490,13 @@
         <v>1023</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -7481,13 +7505,13 @@
         <v>21248</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>212</v>
+        <v>353</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -7496,13 +7520,13 @@
         <v>22270</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,10 +7541,10 @@
         <v>777560</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -7532,13 +7556,13 @@
         <v>804919</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M34" s="7">
         <v>1485</v>
@@ -7547,13 +7571,13 @@
         <v>1582480</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>308</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7642,7 +7666,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7657,7 +7681,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7696,13 @@
         <v>19096</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="H37" s="7">
         <v>81</v>
@@ -7687,13 +7711,13 @@
         <v>86874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M37" s="7">
         <v>100</v>
@@ -7702,13 +7726,13 @@
         <v>105970</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7747,13 @@
         <v>3375254</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>360</v>
+        <v>164</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="H38" s="7">
         <v>3257</v>
@@ -7738,13 +7762,13 @@
         <v>3457668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="M38" s="7">
         <v>6469</v>
@@ -7753,13 +7777,13 @@
         <v>6832922</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,7 +7839,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -7839,7 +7863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1D868-94D5-4EAA-8744-CEE6BF4F3637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337BCEE1-5154-4725-A5D7-AC5131FF60BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7856,7 +7880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7969,7 +7993,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7999,7 +8023,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8038,13 @@
         <v>2927</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -8029,13 +8053,13 @@
         <v>13417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -8044,13 +8068,13 @@
         <v>16344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8089,13 @@
         <v>257371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>518</v>
@@ -8080,13 +8104,13 @@
         <v>257986</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>845</v>
@@ -8095,13 +8119,13 @@
         <v>515356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,7 +8214,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8205,7 +8229,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8244,13 @@
         <v>4123</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -8235,13 +8259,13 @@
         <v>22077</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -8250,13 +8274,13 @@
         <v>26200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>382</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8295,13 @@
         <v>512726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>685</v>
@@ -8286,13 +8310,13 @@
         <v>530428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -8301,13 +8325,13 @@
         <v>1043154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,7 +8405,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8411,7 +8435,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8450,13 @@
         <v>3859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -8441,13 +8465,13 @@
         <v>12661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -8456,13 +8480,13 @@
         <v>16520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,10 +8501,10 @@
         <v>318381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>27</v>
@@ -8492,13 +8516,13 @@
         <v>360623</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
@@ -8507,13 +8531,13 @@
         <v>679004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,7 +8593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8587,7 +8611,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8602,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8617,7 +8641,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8656,13 @@
         <v>4098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -8647,13 +8671,13 @@
         <v>18530</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -8662,13 +8686,13 @@
         <v>22628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,10 +8707,10 @@
         <v>318142</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>255</v>
@@ -8698,13 +8722,13 @@
         <v>410026</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -8713,13 +8737,13 @@
         <v>728168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8775,7 +8799,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8793,7 +8817,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -8802,13 +8826,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8817,13 +8841,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8844,7 +8868,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -8853,13 +8877,13 @@
         <v>7674</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -8868,13 +8892,13 @@
         <v>8793</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>421</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,10 +8913,10 @@
         <v>195629</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -8904,13 +8928,13 @@
         <v>223494</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>750</v>
@@ -8919,13 +8943,13 @@
         <v>419123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8981,7 +9005,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8999,7 +9023,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9008,13 +9032,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9023,13 +9047,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9044,13 +9068,13 @@
         <v>10272</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -9059,13 +9083,13 @@
         <v>15480</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -9074,13 +9098,13 @@
         <v>25752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9095,13 +9119,13 @@
         <v>266951</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>425</v>
@@ -9110,13 +9134,13 @@
         <v>259424</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>778</v>
@@ -9125,13 +9149,13 @@
         <v>526375</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9187,7 +9211,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9205,7 +9229,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9235,7 +9259,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9250,13 +9274,13 @@
         <v>11268</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>90</v>
@@ -9265,13 +9289,13 @@
         <v>60878</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -9280,13 +9304,13 @@
         <v>72146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,13 +9325,13 @@
         <v>613549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>867</v>
@@ -9316,13 +9340,13 @@
         <v>741335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>1448</v>
@@ -9331,13 +9355,13 @@
         <v>1354884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9393,7 +9417,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9411,7 +9435,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9420,13 +9444,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9435,13 +9459,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,13 +9480,13 @@
         <v>2920</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>294</v>
+        <v>470</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>463</v>
+        <v>191</v>
       </c>
       <c r="H33" s="7">
         <v>15</v>
@@ -9471,13 +9495,13 @@
         <v>13534</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -9486,13 +9510,13 @@
         <v>16454</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>465</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9507,13 +9531,13 @@
         <v>856508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>466</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H34" s="7">
         <v>1045</v>
@@ -9522,13 +9546,13 @@
         <v>851492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M34" s="7">
         <v>1804</v>
@@ -9537,13 +9561,13 @@
         <v>1708000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>469</v>
+        <v>345</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>152</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,7 +9641,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9626,13 +9650,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9641,13 +9665,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>473</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,13 +9686,13 @@
         <v>40585</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -9677,13 +9701,13 @@
         <v>164251</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -9692,13 +9716,13 @@
         <v>204836</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>482</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,13 +9737,13 @@
         <v>3339257</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H38" s="7">
         <v>5099</v>
@@ -9728,13 +9752,13 @@
         <v>3634809</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="M38" s="7">
         <v>8411</v>
@@ -9743,13 +9767,13 @@
         <v>6974065</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>479</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9805,7 +9829,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2149254B-B9AF-4C20-A0DA-BEB1FF2F47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEEBCC3A-4BBD-495A-9C45-D08F6DA9C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE067A11-9088-493C-87B6-90A8ECD2AEA4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A671C3CA-1075-4D75-8EA2-B956C0146D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="467">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -512,7 +512,52 @@
     <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>1,97%</t>
@@ -521,18 +566,12 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
     <t>1,0%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
     <t>99,01%</t>
   </si>
   <si>
@@ -575,330 +614,312 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
@@ -938,9 +959,6 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
     <t>2,81%</t>
   </si>
   <si>
@@ -953,9 +971,6 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
     <t>97,19%</t>
   </si>
   <si>
@@ -1097,316 +1112,334 @@
     <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927656DD-C47C-40E5-8E17-E8368A73C29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20057C12-12E2-4175-B498-D214B19DCF83}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3230,7 +3263,7 @@
         <v>3201</v>
       </c>
       <c r="D29" s="7">
-        <v>3263063</v>
+        <v>3263062</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>22</v>
@@ -3245,7 +3278,7 @@
         <v>3242</v>
       </c>
       <c r="I29" s="7">
-        <v>3321525</v>
+        <v>3321524</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>149</v>
@@ -3260,7 +3293,7 @@
         <v>6443</v>
       </c>
       <c r="N29" s="7">
-        <v>6584586</v>
+        <v>6584587</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>152</v>
@@ -3281,7 +3314,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -3296,7 +3329,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -3311,7 +3344,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -3349,7 +3382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A24BD34-774C-455D-B78A-8B3DC0318BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6944D20E-5510-4822-87A0-5F1B97EEE3FA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3467,43 +3500,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1960</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9564</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11524</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,43 +3551,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D5" s="7">
+        <v>292778</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="I5" s="7">
+        <v>277681</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="N5" s="7">
+        <v>570459</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,43 +3602,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3676,13 @@
         <v>10342</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3640,7 +3691,7 @@
         <v>10342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>16</v>
@@ -3676,13 +3727,13 @@
         <v>513423</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
@@ -3691,7 +3742,7 @@
         <v>1018950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>138</v>
@@ -3771,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3780,13 +3831,13 @@
         <v>6280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3795,10 +3846,10 @@
         <v>8280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>49</v>
@@ -3819,7 +3870,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3831,13 +3882,13 @@
         <v>334740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -3846,13 +3897,13 @@
         <v>656786</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,49 +3965,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1960</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>25429</v>
+        <v>15865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>27389</v>
+        <v>15865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,49 +4016,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>666760</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>603</v>
+        <v>356</v>
       </c>
       <c r="I14" s="7">
-        <v>650767</v>
+        <v>373086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
-        <v>1227</v>
+        <v>700</v>
       </c>
       <c r="N14" s="7">
-        <v>1317527</v>
+        <v>747068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,10 +4067,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -4031,10 +4082,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4046,10 +4097,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4075,13 +4126,13 @@
         <v>3120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4090,13 +4141,13 @@
         <v>11963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4105,13 +4156,13 @@
         <v>15083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4177,13 @@
         <v>209498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4141,13 +4192,13 @@
         <v>207628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -4156,13 +4207,13 @@
         <v>417126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4245,13 +4296,13 @@
         <v>4898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4260,13 +4311,13 @@
         <v>6880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4335,7 @@
         <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -4296,10 +4347,10 @@
         <v>273198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>43</v>
@@ -4311,13 +4362,13 @@
         <v>545197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4436,13 @@
         <v>1998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4400,13 +4451,13 @@
         <v>20519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4415,13 +4466,13 @@
         <v>22518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,10 +4487,10 @@
         <v>660790</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -4451,13 +4502,13 @@
         <v>673334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>1234</v>
@@ -4466,13 +4517,13 @@
         <v>1334123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4591,7 @@
         <v>4265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>51</v>
@@ -4555,13 +4606,13 @@
         <v>17128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -4573,10 +4624,10 @@
         <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4642,7 @@
         <v>774833</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>114</v>
@@ -4606,13 +4657,13 @@
         <v>804403</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>1452</v>
@@ -4624,10 +4675,10 @@
         <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4746,13 @@
         <v>15324</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -4710,13 +4761,13 @@
         <v>96559</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M28" s="7">
         <v>105</v>
@@ -4725,13 +4776,13 @@
         <v>111884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,10 +4797,10 @@
         <v>3411455</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>133</v>
@@ -4761,10 +4812,10 @@
         <v>3457493</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>150</v>
@@ -4773,16 +4824,16 @@
         <v>6399</v>
       </c>
       <c r="N29" s="7">
-        <v>6868946</v>
+        <v>6868947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +4875,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
@@ -4862,7 +4913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999364B0-145C-49F4-B47F-7F599ACAACF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DD1E98-0612-47A7-BC09-2686D6559F8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4879,7 +4930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4992,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5001,13 +5052,13 @@
         <v>8091</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5016,13 +5067,13 @@
         <v>10773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,7 +5091,7 @@
         <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5052,13 +5103,13 @@
         <v>280612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>534</v>
@@ -5067,13 +5118,13 @@
         <v>571691</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5192,13 @@
         <v>4147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5156,13 +5207,13 @@
         <v>4306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5171,13 +5222,13 @@
         <v>8454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5243,13 @@
         <v>498428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -5207,13 +5258,13 @@
         <v>518778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -5222,10 +5273,10 @@
         <v>1017205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>84</v>
@@ -5296,13 +5347,13 @@
         <v>783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5311,13 +5362,13 @@
         <v>6676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5329,7 +5380,7 @@
         <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -5347,10 +5398,10 @@
         <v>317782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -5362,13 +5413,13 @@
         <v>329633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>659</v>
@@ -5383,7 +5434,7 @@
         <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5508,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5466,10 +5517,10 @@
         <v>14772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>80</v>
@@ -5481,13 +5532,13 @@
         <v>18724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5556,7 @@
         <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>68</v>
@@ -5517,13 +5568,13 @@
         <v>372511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>694</v>
@@ -5532,13 +5583,13 @@
         <v>738523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5657,13 @@
         <v>974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5621,13 +5672,13 @@
         <v>6141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5636,13 +5687,13 @@
         <v>7116</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,10 +5708,10 @@
         <v>210247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -5672,13 +5723,13 @@
         <v>212446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>428</v>
@@ -5687,10 +5738,10 @@
         <v>422692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>43</v>
@@ -5764,10 +5815,10 @@
         <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5779,10 +5830,10 @@
         <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5794,10 +5845,10 @@
         <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,10 +5866,10 @@
         <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5830,10 +5881,10 @@
         <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -5845,10 +5896,10 @@
         <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5973,7 @@
         <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5931,13 +5982,13 @@
         <v>21172</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5946,13 +5997,13 @@
         <v>23866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +6021,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>59</v>
@@ -5982,13 +6033,13 @@
         <v>670122</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>1203</v>
@@ -5997,13 +6048,13 @@
         <v>1323986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6122,13 @@
         <v>1023</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -6086,13 +6137,13 @@
         <v>21248</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -6101,13 +6152,13 @@
         <v>22270</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,10 +6173,10 @@
         <v>777560</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -6137,10 +6188,10 @@
         <v>804919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>85</v>
@@ -6152,13 +6203,13 @@
         <v>1582480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6283,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H28" s="7">
         <v>81</v>
@@ -6241,13 +6292,13 @@
         <v>86874</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -6256,13 +6307,13 @@
         <v>105970</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,7 +6331,7 @@
         <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>36</v>
@@ -6292,13 +6343,13 @@
         <v>3457668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>6469</v>
@@ -6307,13 +6358,13 @@
         <v>6832922</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C5E568-76A2-44F7-AE60-AD6EB02988CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13DCBA-C524-4861-B6FE-A023EBED78E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6410,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6514,46 +6565,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2927</v>
+        <v>3142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>13417</v>
+        <v>16052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>16344</v>
+        <v>19194</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,46 +6616,46 @@
         <v>327</v>
       </c>
       <c r="D5" s="7">
-        <v>257371</v>
+        <v>308301</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
       </c>
       <c r="I5" s="7">
-        <v>257986</v>
+        <v>273583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>845</v>
       </c>
       <c r="N5" s="7">
-        <v>515356</v>
+        <v>581883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,7 +6667,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -6631,7 +6682,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -6646,7 +6697,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -6669,46 +6720,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4123</v>
+        <v>3945</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>22077</v>
+        <v>20519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>26200</v>
+        <v>24465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6771,13 @@
         <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>512726</v>
+        <v>512135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>102</v>
@@ -6735,31 +6786,31 @@
         <v>685</v>
       </c>
       <c r="I8" s="7">
-        <v>530428</v>
+        <v>492536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
       </c>
       <c r="N8" s="7">
-        <v>1043154</v>
+        <v>1004670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,7 +6822,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>516849</v>
+        <v>516080</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -6786,7 +6837,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552505</v>
+        <v>513055</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -6801,7 +6852,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1069354</v>
+        <v>1029135</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -6824,46 +6875,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>3859</v>
+        <v>3628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>12661</v>
+        <v>11663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>16520</v>
+        <v>15290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,46 +6926,46 @@
         <v>354</v>
       </c>
       <c r="D11" s="7">
-        <v>318381</v>
+        <v>312422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
       </c>
       <c r="I11" s="7">
-        <v>360623</v>
+        <v>337465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>868</v>
       </c>
       <c r="N11" s="7">
-        <v>679004</v>
+        <v>649888</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +6977,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -6941,7 +6992,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -6956,7 +7007,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -6979,46 +7030,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>4098</v>
+        <v>3915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>18530</v>
+        <v>17017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>22628</v>
+        <v>20933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,46 +7081,46 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>318142</v>
+        <v>308642</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
       </c>
       <c r="I14" s="7">
-        <v>410026</v>
+        <v>458701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>857</v>
       </c>
       <c r="N14" s="7">
-        <v>728168</v>
+        <v>767341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,7 +7132,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -7096,7 +7147,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -7111,7 +7162,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -7134,46 +7185,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1119</v>
+        <v>1005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>7674</v>
+        <v>6961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>8793</v>
+        <v>7966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7236,13 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195629</v>
+        <v>177737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -7200,31 +7251,31 @@
         <v>473</v>
       </c>
       <c r="I17" s="7">
-        <v>223494</v>
+        <v>201012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
       </c>
       <c r="N17" s="7">
-        <v>419122</v>
+        <v>378748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,7 +7287,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -7251,7 +7302,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231168</v>
+        <v>207973</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -7266,7 +7317,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427915</v>
+        <v>386714</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -7289,46 +7340,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>10272</v>
+        <v>9799</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>15480</v>
+        <v>14501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>25752</v>
+        <v>24300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,46 +7391,46 @@
         <v>353</v>
       </c>
       <c r="D20" s="7">
-        <v>266951</v>
+        <v>259837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
       </c>
       <c r="I20" s="7">
-        <v>259425</v>
+        <v>241886</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
       </c>
       <c r="N20" s="7">
-        <v>526375</v>
+        <v>501723</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,7 +7442,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -7406,7 +7457,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -7421,7 +7472,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -7444,46 +7495,46 @@
         <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>11268</v>
+        <v>10809</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
       </c>
       <c r="I22" s="7">
-        <v>60878</v>
+        <v>56083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
       </c>
       <c r="N22" s="7">
-        <v>72146</v>
+        <v>66892</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,46 +7546,46 @@
         <v>581</v>
       </c>
       <c r="D23" s="7">
-        <v>613549</v>
+        <v>610772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="H23" s="7">
         <v>867</v>
       </c>
       <c r="I23" s="7">
-        <v>741335</v>
+        <v>791376</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>1448</v>
       </c>
       <c r="N23" s="7">
-        <v>1354884</v>
+        <v>1402148</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7597,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>624817</v>
+        <v>621581</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -7561,7 +7612,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>802213</v>
+        <v>847459</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>26</v>
@@ -7576,7 +7627,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1427030</v>
+        <v>1469040</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -7599,46 +7650,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2920</v>
+        <v>2519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>13534</v>
+        <v>10278</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>111</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>16454</v>
+        <v>12797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,46 +7701,46 @@
         <v>759</v>
       </c>
       <c r="D26" s="7">
-        <v>856508</v>
+        <v>926201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="H26" s="7">
         <v>1045</v>
       </c>
       <c r="I26" s="7">
-        <v>851492</v>
+        <v>704563</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
       </c>
       <c r="N26" s="7">
-        <v>1708000</v>
+        <v>1630764</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7752,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -7716,7 +7767,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865026</v>
+        <v>714841</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>26</v>
@@ -7731,7 +7782,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724454</v>
+        <v>1643561</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -7754,43 +7805,43 @@
         <v>59</v>
       </c>
       <c r="D28" s="7">
-        <v>40585</v>
+        <v>38763</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>450</v>
+        <v>246</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="H28" s="7">
         <v>254</v>
       </c>
       <c r="I28" s="7">
-        <v>164251</v>
+        <v>153074</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>313</v>
       </c>
       <c r="N28" s="7">
-        <v>204836</v>
+        <v>191837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>309</v>
@@ -7805,46 +7856,46 @@
         <v>3312</v>
       </c>
       <c r="D29" s="7">
-        <v>3339257</v>
+        <v>3416046</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>5099</v>
       </c>
       <c r="I29" s="7">
-        <v>3634808</v>
+        <v>3501120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>358</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>8411</v>
       </c>
       <c r="N29" s="7">
-        <v>6974066</v>
+        <v>6917166</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,7 +7907,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3379842</v>
+        <v>3454809</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>26</v>
@@ -7871,7 +7922,7 @@
         <v>5353</v>
       </c>
       <c r="I30" s="7">
-        <v>3799059</v>
+        <v>3654194</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>26</v>
@@ -7886,7 +7937,7 @@
         <v>8724</v>
       </c>
       <c r="N30" s="7">
-        <v>7178902</v>
+        <v>7109003</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>26</v>
